--- a/src/test/resources/006 Two-teams-one-mhproject-with-overflow.xlsx
+++ b/src/test/resources/006 Two-teams-one-mhproject-with-overflow.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ProjektPortfolio\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="20625" windowHeight="8340"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Team1</t>
   </si>
@@ -78,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,6 +125,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -396,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -779,6 +787,9 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/test/resources/006 Two-teams-one-mhproject-with-overflow.xlsx
+++ b/src/test/resources/006 Two-teams-one-mhproject-with-overflow.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ProjektPortfolio\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="20625" windowHeight="8340"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Team1</t>
   </si>
@@ -83,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,9 +120,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -404,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -787,9 +779,6 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/test/resources/006 Two-teams-one-mhproject-with-overflow.xlsx
+++ b/src/test/resources/006 Two-teams-one-mhproject-with-overflow.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ProjektPortfolio\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="20625" windowHeight="8340"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Team1</t>
   </si>
@@ -78,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,6 +125,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -396,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -779,6 +787,9 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
         <v>6</v>
       </c>
     </row>
